--- a/ZPUP/line_info.xlsx
+++ b/ZPUP/line_info.xlsx
@@ -5,46 +5,76 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lamiaadakir/Documents/zpup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lamiaadakir/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="840" windowWidth="18620" windowHeight="15500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mhws2miS8Ba4HqNNe5+Zx0AT+Wybw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
+  <si>
+    <t>Lamiaa</t>
+  </si>
   <si>
     <t>Line</t>
   </si>
   <si>
-    <t>Continuum Range</t>
-  </si>
-  <si>
-    <t>Range</t>
+    <t>Wavelength (Å)</t>
+  </si>
+  <si>
+    <t>Continuum Range (Å)</t>
   </si>
   <si>
     <t xml:space="preserve">Continuum Norm </t>
   </si>
   <si>
+    <t>Range (Å)</t>
+  </si>
+  <si>
     <t>Norm</t>
   </si>
   <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>U0</t>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Taustar</t>
+  </si>
+  <si>
+    <t>Uo</t>
+  </si>
+  <si>
+    <t>Min_error</t>
+  </si>
+  <si>
+    <t>Max_error</t>
+  </si>
+  <si>
+    <t>Ro</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Chi-squared</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Mg XII</t>
@@ -62,165 +92,402 @@
     <t>-0.39 +0.58</t>
   </si>
   <si>
+    <t>Ne X</t>
+  </si>
+  <si>
+    <t>11.94-12.02 &amp; 12.23-12.26</t>
+  </si>
+  <si>
+    <t>12.03-12.18</t>
+  </si>
+  <si>
+    <t>-0.22 + 0.25 E-04</t>
+  </si>
+  <si>
+    <t>-0.5 +0.5</t>
+  </si>
+  <si>
+    <t>STH IS WRONG !</t>
+  </si>
+  <si>
+    <t>Fe XVII</t>
+  </si>
+  <si>
+    <t>14.85-14.90</t>
+  </si>
+  <si>
+    <t>14.87-15.13</t>
+  </si>
+  <si>
+    <t>-0.59 + 0.63 E-04</t>
+  </si>
+  <si>
+    <t>-1.61 +3.04</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>O VIII</t>
+  </si>
+  <si>
+    <t>18.70-18.80 &amp; 19.12-19.30</t>
+  </si>
+  <si>
+    <t>18.80-19.13</t>
+  </si>
+  <si>
+    <t>-1.21 +1.47 E-04</t>
+  </si>
+  <si>
+    <t>-12.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S XV </t>
+  </si>
+  <si>
+    <t>4.7-4.85 &amp; 5.2-5.4</t>
+  </si>
+  <si>
+    <t>4.98-5.16</t>
+  </si>
+  <si>
+    <t>-0.46 +0.50 E-05</t>
+  </si>
+  <si>
+    <t>-5.45E-12 +0.21</t>
+  </si>
+  <si>
+    <t>Mg XI</t>
+  </si>
+  <si>
+    <t>7.92-8.03</t>
+  </si>
+  <si>
+    <t>7.82-7.92</t>
+  </si>
+  <si>
+    <t>-0.27 + 0.29</t>
+  </si>
+  <si>
+    <t>-0.5 + 1.45</t>
+  </si>
+  <si>
     <t>NEW DATA</t>
   </si>
   <si>
+    <t>-0.37 + 0.39 E-05</t>
+  </si>
+  <si>
     <t>-0.44 +0.67</t>
   </si>
   <si>
-    <t>-0.37 + 0.39 E-05</t>
-  </si>
-  <si>
-    <t>R0</t>
-  </si>
-  <si>
-    <t>Chi-squared</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>NeX</t>
   </si>
   <si>
-    <t>11.94-12.02 &amp; 12.23-12.26</t>
-  </si>
-  <si>
-    <t>12.03-12.18</t>
-  </si>
-  <si>
-    <t>-0.5 +0.5</t>
-  </si>
-  <si>
-    <t>STH IS WRONG !</t>
-  </si>
-  <si>
-    <t>-0.22 + 0.25 E-04</t>
+    <t>-0.24 +0.26</t>
   </si>
   <si>
     <t>-0.54 + 0.57</t>
   </si>
   <si>
-    <t>-0.24 +0.26</t>
-  </si>
-  <si>
     <t>FeXVII</t>
   </si>
   <si>
-    <t>14.85-14.90</t>
-  </si>
-  <si>
-    <t>14.87-15.13</t>
-  </si>
-  <si>
-    <t>-1.61 +3.04</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Taustar</t>
-  </si>
-  <si>
-    <t>Min_error</t>
-  </si>
-  <si>
-    <t>Max_error</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
     <t>OVIII</t>
   </si>
   <si>
-    <t>18.70-18.80 &amp; 19.12-19.30</t>
-  </si>
-  <si>
-    <t>18.80-19.13</t>
-  </si>
-  <si>
-    <t>-12.24</t>
-  </si>
-  <si>
-    <t>-0.59 + 0.63 E-04</t>
-  </si>
-  <si>
-    <t>-1.21 +1.47 E-04</t>
-  </si>
-  <si>
-    <t>Ne X</t>
-  </si>
-  <si>
-    <t>Fe XVII</t>
-  </si>
-  <si>
-    <t>O VIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S XV </t>
-  </si>
-  <si>
-    <t>4.7-4.85 &amp; 5.2-5.4</t>
-  </si>
-  <si>
-    <t>4.98-5.16</t>
-  </si>
-  <si>
-    <t>-5.45E-12 +0.21</t>
-  </si>
-  <si>
-    <t>-0.46 +0.50 E-05</t>
-  </si>
-  <si>
-    <t>Mg XI</t>
-  </si>
-  <si>
-    <t>7.92-8.03</t>
-  </si>
-  <si>
-    <t>7.82-7.92</t>
-  </si>
-  <si>
-    <t>-0.5 + 1.45</t>
-  </si>
-  <si>
-    <t>-0.27 + 0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Lamiaa</t>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Norm with errors</t>
+  </si>
+  <si>
+    <t>Taustar with errors</t>
+  </si>
+  <si>
+    <t>uo with errors</t>
+  </si>
+  <si>
+    <t>Ro with errors</t>
+  </si>
+  <si>
+    <t>S XV (He-like)</t>
+  </si>
+  <si>
+    <t>4.70-4.85 &amp; 5.20-5.40</t>
+  </si>
+  <si>
+    <t>2.79 (-0.47/+0.52) E-05</t>
+  </si>
+  <si>
+    <t>1.08 (-0.18/+0.80)</t>
+  </si>
+  <si>
+    <t>0.75 (-0.20/+0.10)</t>
+  </si>
+  <si>
+    <t>1.33 (-0.15/+0.47)</t>
+  </si>
+  <si>
+    <t>Si XIV</t>
+  </si>
+  <si>
+    <t>6.00-6.12 &amp; 6.23-6.26 &amp; 6.31-6.40</t>
+  </si>
+  <si>
+    <t>6.13-6.24</t>
+  </si>
+  <si>
+    <t>9.84 (-1.96/+2.14) E-06</t>
+  </si>
+  <si>
+    <t>1.64 (-0.49/+0.79)</t>
+  </si>
+  <si>
+    <t>0.96 (-0.31/+0.04)</t>
+  </si>
+  <si>
+    <t>1.04 (-0.04/+0.49)</t>
+  </si>
+  <si>
+    <t>Si XIII (He-like)</t>
+  </si>
+  <si>
+    <t>6.40-6.55 &amp; 6.82-6.95</t>
+  </si>
+  <si>
+    <t>6.58-6.82</t>
+  </si>
+  <si>
+    <t>1.46 (-0.06/+0.07) E-04</t>
+  </si>
+  <si>
+    <t>0.39 (-0.19/+0.24)</t>
+  </si>
+  <si>
+    <t>0.58 (-0.04/+0.04)</t>
+  </si>
+  <si>
+    <t>1.74 (-0.11/+0.14)</t>
+  </si>
+  <si>
+    <t>7.850</t>
+  </si>
+  <si>
+    <t>1.55 (-0.28/+0.30) E-05</t>
+  </si>
+  <si>
+    <t>1.03 (-0.86/+3.44)</t>
+  </si>
+  <si>
+    <t>0.52 (-0.12/+0.12)</t>
+  </si>
+  <si>
+    <t>1.94 (-0.36/+0.62)</t>
+  </si>
+  <si>
+    <t>8.25-8.35 &amp; 8.50-8.60</t>
+  </si>
+  <si>
+    <t>8.34-8.5</t>
+  </si>
+  <si>
+    <t>3.47 (-0.37/+0.39) E-05</t>
+  </si>
+  <si>
+    <t>0.85 (-0.44/+0.65)</t>
+  </si>
+  <si>
+    <t>0.60 (-0.08/+0.07)</t>
+  </si>
+  <si>
+    <t>1.68 (-0.19/+0.24)</t>
+  </si>
+  <si>
+    <t>Mg XI (He-like)</t>
+  </si>
+  <si>
+    <t>8.80-8.90 &amp; 9.50-9.60</t>
+  </si>
+  <si>
+    <t>9.07-9.40</t>
+  </si>
+  <si>
+    <t>2.34 (-0.12/+0.13) E-04</t>
+  </si>
+  <si>
+    <t>1.09 (-0.34/+0.41)</t>
+  </si>
+  <si>
+    <t>0.57 (-0.05/+0.05)</t>
+  </si>
+  <si>
+    <t>1.76 (-0.14/+0.17)</t>
+  </si>
+  <si>
+    <t>9.50-9.60 &amp; 9.78-9.93</t>
+  </si>
+  <si>
+    <t>9.62-9.80</t>
+  </si>
+  <si>
+    <t>1.73 (-0.45/+0.49) E-05</t>
+  </si>
+  <si>
+    <t>1.32 (-0.77/+1.13)</t>
+  </si>
+  <si>
+    <t>0.81 (-0.21/+0.15)</t>
+  </si>
+  <si>
+    <t>1.23 (-0.19/+0.41)</t>
+  </si>
+  <si>
+    <t>10.10-10.15 &amp; 10.35-10.45</t>
+  </si>
+  <si>
+    <t>10.15-10.35</t>
+  </si>
+  <si>
+    <t>2.73 (-0.62/+0.67) E-05</t>
+  </si>
+  <si>
+    <t>2.16 (-1.02/+1.73)</t>
+  </si>
+  <si>
+    <t>0.74 (-0.23/+0.26)</t>
+  </si>
+  <si>
+    <t>1.36 (-0.36/+0.60)</t>
+  </si>
+  <si>
+    <t>Ne IX</t>
+  </si>
+  <si>
+    <t>11.30-11.40 &amp; 11.65-11.85</t>
+  </si>
+  <si>
+    <t>11.44-11.64</t>
+  </si>
+  <si>
+    <t>6.58 (-1.10/+1.19) E-05</t>
+  </si>
+  <si>
+    <t>2.00 (-0.98/+1.50)</t>
+  </si>
+  <si>
+    <t>0.67 (-0.21/+0.33)</t>
+  </si>
+  <si>
+    <t>1.49 (-0.49/+0.68)</t>
+  </si>
+  <si>
+    <t>2.63 (-0.24/+0.25) E-04</t>
+  </si>
+  <si>
+    <t>2.60 (-0.41/+0.55)</t>
+  </si>
+  <si>
+    <t>0.89 (-0.22/+0.11)</t>
+  </si>
+  <si>
+    <t>1.12 (-0.12/+0.37)</t>
+  </si>
+  <si>
+    <t>did not fit</t>
+  </si>
+  <si>
+    <t>5.70 (-0.67/+0.72) E-04</t>
+  </si>
+  <si>
+    <t>2.53 (-1.06/+1.58)</t>
+  </si>
+  <si>
+    <t>0.54 (-0.15/+0.24)</t>
+  </si>
+  <si>
+    <t>1.85 (-0.58/+0.74)</t>
+  </si>
+  <si>
+    <t>dd not fit</t>
+  </si>
+  <si>
+    <t>16.780</t>
+  </si>
+  <si>
+    <t>16.30-16.60 &amp; 16.86-16.90</t>
+  </si>
+  <si>
+    <t>16.64-16.90</t>
+  </si>
+  <si>
+    <t>3.69 (-0.79/+0.90) E-04</t>
+  </si>
+  <si>
+    <t>2.05 (-0.99/+1.43)</t>
+  </si>
+  <si>
+    <t>0.65 (-0.14/+0.18)</t>
+  </si>
+  <si>
+    <t>1.54 (-0.34/+0.44)</t>
+  </si>
+  <si>
+    <t>17.015, 17.096</t>
+  </si>
+  <si>
+    <t>N VII</t>
+  </si>
+  <si>
+    <t>20.910</t>
+  </si>
+  <si>
+    <t>O VII</t>
+  </si>
+  <si>
+    <t>21.602, 21.804</t>
+  </si>
+  <si>
+    <t>6-6.12 &amp; 6.23-6.26 &amp; 6.31-6.4</t>
+  </si>
+  <si>
+    <t>-0.19 +0.21 E-05</t>
+  </si>
+  <si>
+    <t>1.71949</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,30 +496,64 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor rgb="FFBDD6EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFEF2CB"/>
+        <bgColor rgb="FFFEF2CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA8D08D"/>
+        <bgColor rgb="FFA8D08D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -261,27 +562,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="40% - Accent5" xfId="1" builtinId="47"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,126 +925,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3">
         <v>8.4209999999999994</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5">
         <v>1.9203899999999999E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5">
         <v>4.1659300000000003E-5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H3">
         <v>0.839584</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5">
         <v>0.66560399999999997</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>-0.06</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M3" s="1">
-        <f>1/J3</f>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M8" si="0">1/J3</f>
         <v>1.5023948173388382</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
       <c r="P3">
         <v>57.96</v>
       </c>
@@ -721,46 +1056,46 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>12.134</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5">
         <v>5.9691299999999996E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5">
         <v>2.5086999999999999E-4</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="H4">
         <v>2.7970799999999998</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>21</v>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J4">
         <v>0.98990100000000003</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1">
-        <f>1/J4</f>
+        <v>27</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
         <v>1.0102020303040404</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
       <c r="P4">
         <v>42.67</v>
       </c>
@@ -768,49 +1103,49 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>15.013999999999999</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5">
         <v>2.9522200000000002E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
         <v>5.2557400000000001E-4</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>41</v>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H5">
         <v>3.1768200000000002</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>29</v>
+      <c r="I5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="J5">
         <v>0.40858100000000003</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="2">
         <v>-0.2</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1">
-        <f>1/J5</f>
+      <c r="L5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
         <v>2.4474951111285153</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
       <c r="P5">
         <v>33.340000000000003</v>
       </c>
@@ -818,33 +1153,33 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>18.969000000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5">
         <v>4.3932600000000004E-3</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5">
         <v>3.7876300000000001E-4</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>42</v>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H6">
         <v>13.1951</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
+      <c r="I6" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J6">
         <v>0.21940299999999999</v>
@@ -852,12 +1187,12 @@
       <c r="K6">
         <v>-0.21</v>
       </c>
-      <c r="M6" s="1">
-        <f>1/J6</f>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
         <v>4.5578228191957271</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
       <c r="P6">
         <v>8.0500000000000007</v>
       </c>
@@ -865,33 +1200,33 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>5.0389999999999997</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5">
         <v>1.0161700000000001E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5">
         <v>3.1196799999999999E-5</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5">
         <v>2.2051199999999999E-11</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>49</v>
+      <c r="I7" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -902,12 +1237,12 @@
       <c r="L7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M7" s="1">
-        <f>1/J7</f>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
       <c r="P7">
         <v>54.27</v>
       </c>
@@ -915,48 +1250,48 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>7.8502999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5">
         <v>1.94663E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5">
         <v>1.6699999999999999E-5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
+      <c r="G8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H8">
         <v>0.58831299999999997</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>54</v>
+      <c r="I8" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="J8">
         <v>0.56075200000000003</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="2">
         <v>-0.12</v>
       </c>
       <c r="L8">
         <v>0.11</v>
       </c>
-      <c r="M8" s="1">
-        <f>1/J8</f>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
         <v>1.7833195423288726</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="5"/>
       <c r="P8">
         <v>44.23</v>
       </c>
@@ -964,134 +1299,185 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
-        <f>A2</f>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="25">
+        <v>6.1820000000000004</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1.15E-3</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1.11E-5</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="25">
+        <f>-0.4 +0.6</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.989958</v>
+      </c>
+      <c r="K9" s="25">
+        <v>-0.27</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26">
+        <v>1.01</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25">
+        <v>30.07</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A17" s="10" t="str">
+        <f t="shared" ref="A17:Q17" si="1">A2</f>
         <v>Line</v>
       </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" ref="B17:Q17" si="0">B2</f>
-        <v>Wavelength</v>
-      </c>
-      <c r="C17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Continuum Range</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="B17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wavelength (Å)</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Continuum Range (Å)</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Continuum Norm </v>
       </c>
-      <c r="E17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Range</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Range (Å)</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Norm</v>
       </c>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Error</v>
       </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Taustar</v>
       </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Error</v>
       </c>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>U0</v>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Uo</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Min_error</v>
       </c>
-      <c r="L17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="L17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Max_error</v>
       </c>
-      <c r="M17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>R0</v>
-      </c>
-      <c r="N17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="M17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Ro</v>
+      </c>
+      <c r="N17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Upper</v>
       </c>
-      <c r="O17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="O17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Lower</v>
       </c>
-      <c r="P17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="P17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Chi-squared</v>
       </c>
-      <c r="Q17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>8.4209999999999994</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5">
         <v>1.915E-3</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5">
         <v>3.5599999999999998E-5</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>14</v>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="H18">
         <v>0.86</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>13</v>
+      <c r="I18" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="J18">
         <v>0.59</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="2">
         <v>0.08</v>
       </c>
       <c r="M18">
-        <f>1/J18</f>
+        <f t="shared" ref="M18:M19" si="2">1/J18</f>
         <v>1.6949152542372883</v>
       </c>
       <c r="N18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P18">
         <v>46.47</v>
@@ -1100,45 +1486,45 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>12.134</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5">
         <v>5.2150399999999998E-3</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5">
         <v>2.6165599999999998E-4</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>25</v>
+      <c r="G19" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H19">
         <v>2.6027499999999999</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>24</v>
+      <c r="I19" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="J19">
         <v>0.92005800000000004</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="2">
         <v>-0.24</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="2">
         <v>0.89</v>
       </c>
       <c r="M19">
-        <f>1/J19</f>
+        <f t="shared" si="2"/>
         <v>1.0868880005390964</v>
       </c>
       <c r="P19">
@@ -1148,35 +1534,1832 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>15.013999999999999</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>18.969000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A32" s="13">
+        <v>21659</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A33" s="10" t="str">
+        <f t="shared" ref="A33:E33" si="3">A17</f>
+        <v>Line</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>Wavelength (Å)</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>Continuum Range (Å)</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Continuum Norm </v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>Range (Å)</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="23"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="10" t="str">
+        <f t="shared" ref="P33:Q33" si="4">P17</f>
+        <v>Chi-squared</v>
+      </c>
+      <c r="Q33" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="14">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="14">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="14">
+        <v>6.1820000000000004</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="14">
+        <v>31.47</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="14">
+        <v>6.6479999999999997</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="14">
+        <v>146.35</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="14">
+        <v>48.41</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="14">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="15">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="14">
+        <v>45.65</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="14">
+        <v>9.1690000000000005</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="15">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="14">
+        <v>134.76</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="14">
+        <v>9.7081999999999997</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="14">
+        <v>38.32</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="14">
+        <v>10.239000000000001</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="14">
+        <v>55.31</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="14">
+        <v>11.544</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="15">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="14">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="14">
+        <v>12.134</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="15">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="14">
+        <v>50.92</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="14">
+        <v>13.446999999999999</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="14">
+        <v>15.013999999999999</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="15">
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="14">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="14">
+        <v>16.006</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="15">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="14">
+        <v>11.56</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="14">
+        <v>18.969000000000001</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="14">
+        <v>24.780999999999999</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="79">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/ZPUP/line_info.xlsx
+++ b/ZPUP/line_info.xlsx
@@ -1,20 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lamiaadakir/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mhws2miS8Ba4HqNNe5+Zx0AT+Wybw=="/>
@@ -24,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
   <si>
     <t>Lamiaa</t>
   </si>
@@ -224,7 +216,7 @@
     <t>2.79 (-0.47/+0.52) E-05</t>
   </si>
   <si>
-    <t>1.08 (-0.18/+0.80)</t>
+    <t>0.18 (-0.18/+0.80)</t>
   </si>
   <si>
     <t>0.75 (-0.20/+0.10)</t>
@@ -242,16 +234,19 @@
     <t>6.13-6.24</t>
   </si>
   <si>
-    <t>9.84 (-1.96/+2.14) E-06</t>
-  </si>
-  <si>
-    <t>1.64 (-0.49/+0.79)</t>
-  </si>
-  <si>
-    <t>0.96 (-0.31/+0.04)</t>
-  </si>
-  <si>
-    <t>1.04 (-0.04/+0.49)</t>
+    <t>1.06 (-0.24/+0.27) E-05</t>
+  </si>
+  <si>
+    <t>1.16 (-0.54/+0.73)</t>
+  </si>
+  <si>
+    <t>0.93 (-0.19/+0.08)</t>
+  </si>
+  <si>
+    <t>1.08 (-0.08/+0.28)</t>
+  </si>
+  <si>
+    <t>46 (MEG)</t>
   </si>
   <si>
     <t>Si XIII (He-like)</t>
@@ -278,22 +273,13 @@
     <t>7.850</t>
   </si>
   <si>
-    <t>1.55 (-0.28/+0.30) E-05</t>
-  </si>
-  <si>
-    <t>1.03 (-0.86/+3.44)</t>
-  </si>
-  <si>
-    <t>0.52 (-0.12/+0.12)</t>
-  </si>
-  <si>
-    <t>1.94 (-0.36/+0.62)</t>
+    <t>too weak to fit</t>
   </si>
   <si>
     <t>8.25-8.35 &amp; 8.50-8.60</t>
   </si>
   <si>
-    <t>8.34-8.5</t>
+    <t>8.34-8.50</t>
   </si>
   <si>
     <t>3.47 (-0.37/+0.39) E-05</t>
@@ -329,42 +315,6 @@
     <t>1.76 (-0.14/+0.17)</t>
   </si>
   <si>
-    <t>9.50-9.60 &amp; 9.78-9.93</t>
-  </si>
-  <si>
-    <t>9.62-9.80</t>
-  </si>
-  <si>
-    <t>1.73 (-0.45/+0.49) E-05</t>
-  </si>
-  <si>
-    <t>1.32 (-0.77/+1.13)</t>
-  </si>
-  <si>
-    <t>0.81 (-0.21/+0.15)</t>
-  </si>
-  <si>
-    <t>1.23 (-0.19/+0.41)</t>
-  </si>
-  <si>
-    <t>10.10-10.15 &amp; 10.35-10.45</t>
-  </si>
-  <si>
-    <t>10.15-10.35</t>
-  </si>
-  <si>
-    <t>2.73 (-0.62/+0.67) E-05</t>
-  </si>
-  <si>
-    <t>2.16 (-1.02/+1.73)</t>
-  </si>
-  <si>
-    <t>0.74 (-0.23/+0.26)</t>
-  </si>
-  <si>
-    <t>1.36 (-0.36/+0.60)</t>
-  </si>
-  <si>
     <t>Ne IX</t>
   </si>
   <si>
@@ -374,43 +324,52 @@
     <t>11.44-11.64</t>
   </si>
   <si>
-    <t>6.58 (-1.10/+1.19) E-05</t>
-  </si>
-  <si>
-    <t>2.00 (-0.98/+1.50)</t>
-  </si>
-  <si>
-    <t>0.67 (-0.21/+0.33)</t>
-  </si>
-  <si>
-    <t>1.49 (-0.49/+0.68)</t>
-  </si>
-  <si>
-    <t>2.63 (-0.24/+0.25) E-04</t>
-  </si>
-  <si>
-    <t>2.60 (-0.41/+0.55)</t>
-  </si>
-  <si>
-    <t>0.89 (-0.22/+0.11)</t>
-  </si>
-  <si>
-    <t>1.12 (-0.12/+0.37)</t>
+    <t>6.57 (-1.20/+1.31) E-05</t>
+  </si>
+  <si>
+    <t>2.64 (-0.76/+1.76)</t>
+  </si>
+  <si>
+    <t>0.99 (-0.59/+0.01)</t>
+  </si>
+  <si>
+    <t>1.01 (-0.01/+1.49)</t>
+  </si>
+  <si>
+    <t>82 (MEG)</t>
+  </si>
+  <si>
+    <t>2.79 (-0.27/+0.29) E-04</t>
+  </si>
+  <si>
+    <t>2.75 (-0.50/+0.68)</t>
+  </si>
+  <si>
+    <t>0.89 (-0.22/+0.15)</t>
+  </si>
+  <si>
+    <t>1.18 (-0.18/+0.45)</t>
+  </si>
+  <si>
+    <t>62 (MEG)</t>
   </si>
   <si>
     <t>did not fit</t>
   </si>
   <si>
-    <t>5.70 (-0.67/+0.72) E-04</t>
-  </si>
-  <si>
-    <t>2.53 (-1.06/+1.58)</t>
-  </si>
-  <si>
-    <t>0.54 (-0.15/+0.24)</t>
-  </si>
-  <si>
-    <t>1.85 (-0.58/+0.74)</t>
+    <t>5.88 (-0.70/+0.76) E-04</t>
+  </si>
+  <si>
+    <t>2.67 (-1.04/+1.54)</t>
+  </si>
+  <si>
+    <t>0.57 (-0.17/+0.43)</t>
+  </si>
+  <si>
+    <t>1.75 (-0.75/+0.73)</t>
+  </si>
+  <si>
+    <t>106 (MEG)</t>
   </si>
   <si>
     <t>dd not fit</t>
@@ -419,24 +378,6 @@
     <t>16.780</t>
   </si>
   <si>
-    <t>16.30-16.60 &amp; 16.86-16.90</t>
-  </si>
-  <si>
-    <t>16.64-16.90</t>
-  </si>
-  <si>
-    <t>3.69 (-0.79/+0.90) E-04</t>
-  </si>
-  <si>
-    <t>2.05 (-0.99/+1.43)</t>
-  </si>
-  <si>
-    <t>0.65 (-0.14/+0.18)</t>
-  </si>
-  <si>
-    <t>1.54 (-0.34/+0.44)</t>
-  </si>
-  <si>
     <t>17.015, 17.096</t>
   </si>
   <si>
@@ -450,49 +391,29 @@
   </si>
   <si>
     <t>21.602, 21.804</t>
-  </si>
-  <si>
-    <t>6-6.12 &amp; 6.23-6.26 &amp; 6.31-6.4</t>
-  </si>
-  <si>
-    <t>-0.19 +0.21 E-05</t>
-  </si>
-  <si>
-    <t>1.71949</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -526,434 +447,119 @@
     </fill>
   </fills>
   <borders count="5">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="26" width="10.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="14.11"/>
+    <col customWidth="1" min="3" max="3" width="29.78"/>
+    <col customWidth="1" min="4" max="4" width="19.78"/>
+    <col customWidth="1" min="5" max="5" width="15.67"/>
+    <col customWidth="1" min="6" max="6" width="10.56"/>
+    <col customWidth="1" min="7" max="7" width="19.78"/>
+    <col customWidth="1" min="8" max="8" width="10.56"/>
+    <col customWidth="1" min="9" max="9" width="21.78"/>
+    <col customWidth="1" min="10" max="10" width="10.56"/>
+    <col customWidth="1" min="11" max="12" width="25.67"/>
+    <col customWidth="1" min="13" max="26" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1006,24 +612,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>8.4209999999999994</v>
+        <v>8.421</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5">
-        <v>1.9203899999999999E-3</v>
+        <v>0.00192039</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="5">
-        <v>4.1659300000000003E-5</v>
+        <v>4.16593E-5</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>20</v>
@@ -1035,17 +641,17 @@
         <v>21</v>
       </c>
       <c r="J3" s="5">
-        <v>0.66560399999999997</v>
+        <v>0.665604</v>
       </c>
       <c r="K3" s="5">
         <v>-0.06</v>
       </c>
       <c r="L3" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M8" si="0">1/J3</f>
-        <v>1.5023948173388382</v>
+        <f t="shared" ref="M3:M8" si="1">1/J3</f>
+        <v>1.502394817</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1053,10 +659,10 @@
         <v>57.96</v>
       </c>
       <c r="Q3">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+        <v>196.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1067,32 +673,32 @@
         <v>23</v>
       </c>
       <c r="D4" s="5">
-        <v>5.9691299999999996E-3</v>
+        <v>0.00596913</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5">
-        <v>2.5086999999999999E-4</v>
+        <v>2.5087E-4</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>2.7970799999999998</v>
+        <v>2.79708</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J4">
-        <v>0.98990100000000003</v>
+        <v>0.989901</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0102020303040404</v>
+        <f t="shared" si="1"/>
+        <v>1.01020203</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1100,39 +706,39 @@
         <v>42.67</v>
       </c>
       <c r="Q4">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+        <v>184.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5">
-        <v>15.013999999999999</v>
+        <v>15.014</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="5">
-        <v>2.9522200000000002E-3</v>
+        <v>0.00295222</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="5">
-        <v>5.2557400000000001E-4</v>
+        <v>5.25574E-4</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H5">
-        <v>3.1768200000000002</v>
+        <v>3.17682</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J5">
-        <v>0.40858100000000003</v>
+        <v>0.408581</v>
       </c>
       <c r="K5" s="2">
         <v>-0.2</v>
@@ -1141,36 +747,36 @@
         <v>33</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4474951111285153</v>
+        <f t="shared" si="1"/>
+        <v>2.447495111</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5">
-        <v>33.340000000000003</v>
+        <v>33.34</v>
       </c>
       <c r="Q5">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+        <v>316.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6">
-        <v>18.969000000000001</v>
+        <v>18.969</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="5">
-        <v>4.3932600000000004E-3</v>
+        <v>0.00439326</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="5">
-        <v>3.7876300000000001E-4</v>
+        <v>3.78763E-4</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
@@ -1182,48 +788,48 @@
         <v>38</v>
       </c>
       <c r="J6">
-        <v>0.21940299999999999</v>
+        <v>0.219403</v>
       </c>
       <c r="K6">
         <v>-0.21</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5578228191957271</v>
+        <f t="shared" si="1"/>
+        <v>4.557822819</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6">
-        <v>8.0500000000000007</v>
+        <v>8.05</v>
       </c>
       <c r="Q6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>5.0389999999999997</v>
+        <v>5.039</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="5">
-        <v>1.0161700000000001E-3</v>
+        <v>0.00101617</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="5">
-        <v>3.1196799999999999E-5</v>
+        <v>3.11968E-5</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="5">
-        <v>2.2051199999999999E-11</v>
+        <v>2.20512E-11</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>43</v>
@@ -1235,10 +841,10 @@
         <v>-0.1</v>
       </c>
       <c r="L7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N7" s="5"/>
@@ -1247,39 +853,39 @@
         <v>54.27</v>
       </c>
       <c r="Q7">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8">
-        <v>7.8502999999999998</v>
+        <v>7.8503</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="5">
-        <v>1.94663E-3</v>
+        <v>0.00194663</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="5">
-        <v>1.6699999999999999E-5</v>
+        <v>1.67E-5</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H8">
-        <v>0.58831299999999997</v>
+        <v>0.588313</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="J8">
-        <v>0.56075200000000003</v>
+        <v>0.560752</v>
       </c>
       <c r="K8" s="2">
         <v>-0.12</v>
@@ -1288,72 +894,27 @@
         <v>0.11</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7833195423288726</v>
+        <f t="shared" si="1"/>
+        <v>1.783319542</v>
       </c>
       <c r="N8" s="5"/>
       <c r="P8">
         <v>44.23</v>
       </c>
       <c r="Q8">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="25">
-        <v>6.1820000000000004</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1.15E-3</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="26">
-        <v>1.11E-5</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="25">
-        <f>-0.4 +0.6</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0.989958</v>
-      </c>
-      <c r="K9" s="25">
-        <v>-0.27</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26">
-        <v>1.01</v>
-      </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25">
-        <v>30.07</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1365,94 +926,94 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f t="shared" ref="A17:Q17" si="1">A2</f>
+        <f t="shared" ref="A17:Q17" si="2">A2</f>
         <v>Line</v>
       </c>
       <c r="B17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Wavelength (Å)</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Continuum Range (Å)</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Continuum Norm </v>
+        <f t="shared" si="2"/>
+        <v>Continuum Norm </v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Range (Å)</v>
       </c>
       <c r="F17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Norm</v>
       </c>
       <c r="G17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Error</v>
       </c>
       <c r="H17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Taustar</v>
       </c>
       <c r="I17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Error</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Uo</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Min_error</v>
       </c>
       <c r="L17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Max_error</v>
       </c>
       <c r="M17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ro</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Upper</v>
       </c>
       <c r="O17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Lower</v>
       </c>
       <c r="P17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Chi-squared</v>
       </c>
       <c r="Q17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8.4209999999999994</v>
+        <v>8.421</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="5">
-        <v>1.915E-3</v>
+        <v>0.001915</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="5">
-        <v>3.5599999999999998E-5</v>
+        <v>3.56E-5</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>50</v>
@@ -1467,14 +1028,14 @@
         <v>0.59</v>
       </c>
       <c r="K18" s="2">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07</v>
       </c>
       <c r="L18" s="2">
         <v>0.08</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M19" si="2">1/J18</f>
-        <v>1.6949152542372883</v>
+        <f t="shared" ref="M18:M19" si="3">1/J18</f>
+        <v>1.694915254</v>
       </c>
       <c r="N18" t="s">
         <v>52</v>
@@ -1483,10 +1044,10 @@
         <v>46.47</v>
       </c>
       <c r="Q18">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1">
+        <v>196.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1497,25 +1058,25 @@
         <v>23</v>
       </c>
       <c r="D19" s="5">
-        <v>5.2150399999999998E-3</v>
+        <v>0.00521504</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
-        <v>2.6165599999999998E-4</v>
+        <v>2.61656E-4</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H19">
-        <v>2.6027499999999999</v>
+        <v>2.60275</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J19">
-        <v>0.92005800000000004</v>
+        <v>0.920058</v>
       </c>
       <c r="K19" s="2">
         <v>-0.24</v>
@@ -1524,22 +1085,22 @@
         <v>0.89</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
-        <v>1.0868880005390964</v>
+        <f t="shared" si="3"/>
+        <v>1.086888001</v>
       </c>
       <c r="P19">
         <v>50.93</v>
       </c>
       <c r="Q19">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+        <v>184.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20">
-        <v>15.013999999999999</v>
+        <v>15.014</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1548,12 +1109,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21">
-        <v>18.969000000000001</v>
+        <v>18.969</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -1562,16 +1123,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -1592,9 +1153,9 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="13">
-        <v>21659</v>
+        <v>21659.0</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1613,733 +1174,557 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="str">
-        <f t="shared" ref="A33:E33" si="3">A17</f>
+        <f t="shared" ref="A33:E33" si="4">A17</f>
         <v>Line</v>
       </c>
       <c r="B33" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Wavelength (Å)</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Continuum Range (Å)</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Continuum Norm </v>
+        <f t="shared" si="4"/>
+        <v>Continuum Norm </v>
       </c>
       <c r="E33" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Range (Å)</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="21" t="s">
+      <c r="G33" s="15"/>
+      <c r="H33" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="21" t="s">
+      <c r="I33" s="15"/>
+      <c r="J33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="21" t="s">
+      <c r="K33" s="16"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="22"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="10" t="str">
-        <f t="shared" ref="P33:Q33" si="4">P17</f>
+        <f t="shared" ref="P33:Q33" si="5">P17</f>
         <v>Chi-squared</v>
       </c>
       <c r="Q33" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A34" s="14" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="14">
-        <v>5.0389999999999997</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="17">
+        <v>5.039</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="15">
-        <v>2.0300000000000001E-3</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="18">
+        <v>0.00102</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="14">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A35" s="14" t="s">
+      <c r="P34" s="17">
+        <v>33.2</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="14">
-        <v>6.1820000000000004</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="17">
+        <v>6.182</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="15">
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="18">
+        <v>0.00119</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="14">
-        <v>31.47</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="P35" s="17">
+        <v>17.75</v>
+      </c>
+      <c r="Q35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="14">
-        <v>6.6479999999999997</v>
-      </c>
-      <c r="C36" s="14" t="s">
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="15">
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="B36" s="17">
+        <v>6.648</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="D36" s="18">
+        <v>0.00135</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="19" t="s">
+      <c r="F36" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="19" t="s">
+      <c r="H36" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="19" t="s">
+      <c r="J36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="14">
+      <c r="M36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" s="17">
         <v>146.35</v>
       </c>
-      <c r="Q36" s="14">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A37" s="16" t="s">
+      <c r="Q36" s="17">
+        <v>292.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="15">
-        <v>1.75E-3</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="19" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="17">
+        <v>8.421</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="19" t="s">
+      <c r="D38" s="18">
+        <v>0.00202</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="14">
-        <v>48.41</v>
-      </c>
-      <c r="Q37" s="14">
+      <c r="F38" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="17">
+        <v>45.65</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>184.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="17">
+        <v>9.169</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0.00203</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="17">
+        <v>134.76</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="17">
+        <v>9.7082</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="17">
+        <v>10.239</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="17">
+        <v>11.544</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0.00327</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P42" s="17">
+        <v>27.51</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="17">
+        <v>12.134</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0.00531</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43" s="17">
+        <v>40.23</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="17">
+        <v>13.447</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="17">
+        <v>15.014</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="18">
+        <v>0.00477</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" s="17">
+        <v>28.96</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="17">
+        <v>16.006</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="17">
+        <v>18.969</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="14">
-        <v>8.4209999999999994</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="15">
-        <v>2.0200000000000001E-3</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="14">
-        <v>45.65</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="14">
-        <v>9.1690000000000005</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="15">
-        <v>2.0300000000000001E-3</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="14">
-        <v>134.76</v>
-      </c>
-      <c r="Q39" s="14">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="14">
-        <v>9.7081999999999997</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="15">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="14">
-        <v>38.32</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="14">
-        <v>10.239000000000001</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="15">
-        <v>3.7200000000000002E-3</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="14">
-        <v>55.31</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="14">
-        <v>11.544</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="15">
-        <v>3.2399999999999998E-3</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="14">
-        <v>32.729999999999997</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="14">
-        <v>12.134</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="15">
-        <v>5.2199999999999998E-3</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19" t="s">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="14">
-        <v>50.92</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="14">
-        <v>13.446999999999999</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="14">
-        <v>15.013999999999999</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="15">
-        <v>6.0499999999999998E-3</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="14">
-        <v>33.659999999999997</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A46" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="14">
-        <v>16.006</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="15">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="14">
-        <v>11.56</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="14">
-        <v>18.969000000000001</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="14">
-        <v>24.780999999999999</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1"/>
+      <c r="B52" s="17">
+        <v>24.781</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -3279,87 +2664,89 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
     <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
     <mergeCell ref="M47:O47"/>
     <mergeCell ref="M48:O48"/>
     <mergeCell ref="M49:O49"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="F47:G47"/>
     <mergeCell ref="M50:O50"/>
     <mergeCell ref="M51:O51"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="M42:O42"/>
     <mergeCell ref="M43:O43"/>
     <mergeCell ref="M44:O44"/>
     <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J47:L47"/>
     <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:L35"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>